--- a/deuChatbot/research_result/results/sem_score/sem_version_1(2000_0).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(2000_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5963,61 +5963,3448 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 중 택1을 선택하여 응시하게 됩니다. 각 종목별로 배점이 다르며, 주요 내용은 다음과 같습니다:
+### 실기종목 및 배점
+- **시각디자인**: 70% (490점)
+- **산업디자인**: 23% (161점)
+- **공예디자인**: 23% (161점)
+### 준비물
+응시자는 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구를 가져와야 합니다.
+### 실기주제 및 화지크기
+- **기초디자인**: 주제A와 주제B 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+- **화지크기**: 켄트지 3절 (A4 크기)
+### 시간
+5시간
+### 주의사항
+- 제공된 사물과 이미지는 표현하지 마세요. 
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 색상 변경은 금지입니다.
+이러한 점들을 참고하여 준비하시면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7674282321333885</v>
+        <v>0.8953741788864136</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1이며, 각 종목별 배점 비율은 70%입니다.
+준비물:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제:
+- 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+- 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+화지크기:
+- 켄트지 3절
+시간:
+- 5시간
+디자인조형학과의 세 가지 실기 종목별로 더 자세한 내용은 다음과 같습니다:
+1. 기초디자인
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+   - 화지크기: 켄트지 3절
+   - 시간: 5시간
+2. 사고의 전환
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+   - 화지크기: 켄트지 2절
+   - 시간: 5시간</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7874351125955582</v>
+        <v>0.9352903366088867</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- various international competitions (only for national and junior teams)
+- 광역시·도 협회장기 종별대회
+2. 축구(남):
+- 春季韩国高中足球联盟赛
+- 秋季韩国高中足球联盟赛
+- 大韩足球协会杯全国高中生足球大赛
+- 文化体育观光部大臣奖全国高中生足球大赛
+- 文化体育观光部大臣杯全国高中生足球大赛
+- 백운기전국고등학교축구대회 (Baekwun Cup National High School Football Tournament)
+- 전국고등축구리그(各地区高中足球联赛)
+- 无双全国高中生足球联赛冠军赛
+- 무학기전국고등학교축구대회 (Muhak Cup National High School Football Tournament)
+- 青龙杯全国高中生足球大赛
+- 백록기전국고등학교축구대회 (Baekrok Cup National High School Football Tournament)
+- 金江杯全国高中生足球大赛
+- 大韩总统奖全国高中生足球大赛
+- 金石杯全国高中生足球大赛
+- 부산MBC全国高中生足球大赛
+- K联赛U18冠军赛
+- K联赛U18冠军赛无双赛
+이러한 대회들에서 좋은 성적을 거두면 경기지도학과 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4748932719230652</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각 하나씩을 선택하여 연결된 주제를 작성해야 합니다. 제공된 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에는 이 주제들 중에서 각각 하나씩을 추첨하여 연결된 주제를 작성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9319519996643066</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 학생부교과 전형에서 출결 점수가 반영됩니다.
+특히 나군 실기/실적(경기실적우수자전형)의 경우, 출결 점수가 다음과 같이 반영됩니다:
+- 경기지도학과에서는 출결 점수가 12%의 비율로 반영됩니다. (나군 실기/실적(경기실적우수자전형) 전형요소 반영비율 참조)
+따라서, 학생부교과 전형에서 출결이 중요하게 평가되므로 좋은 출석 기록을 유지하는 것이 유리합니다.
+추가로, 다른 전형에서도 출결이 일부 반영될 수 있으므로, 가능한한 꾸준히 등교하고 적극적으로 참여하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.7039899230003357</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+참조 정보:
+- 표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원
+- 해당 내용 : 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8829123377799988</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8246312141418457</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+이 정보는 다음과 같은 데이터에서 얻어졌습니다:
+"data":
+---
+[data]
+표 제목 : 나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원
+아래부터는 나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원 표 내용이다.
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+의료·보건·생활대학 / 자연과학 / 간호학과 - 교직 - 간호교육인증 / 22 /
+...
+```
+이 표에서 의료·보건·생활대학의 간호학과 - 교직 - 간호교육인증 모집단위의 모집인원은 정확히 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.6051743030548096</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的英语等级对应的分数：
+| 等级 | 分数 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+您可以根据学生的英语等级查找到相应的分数。</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5687160491943359</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>/art/images/no.png
+예술고 출신자는 농어촌학생전형에 지원할 수 없습니다.
+추가 정보:
+- 농어촌학생전형의 지원자격 중 예술고, 체육고, 국제고, 외국어고는 제외되어 있습니다.
+- 관련 내용은 다음과 같습니다:
+"예술고, 체육고, 국제고, 외국어고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 다른 전형을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.702888548374176</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 223~226 cm이며, 해당 등급의 배점은 208.0 점입니다.
+참조표를 보면:
+- 4등급 기준: 223~226 cm
+- 배점: 208.0 점
+따라서 여자 제자리 멀리뛰기에서 4등급을 받은 학생의 기록은 223~226 cm이고, 이에 대한 배점은 208.0 점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.7297298908233643</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경기지도학과의 학생부교과 성적 반영 비율은 다음과 같습니다:
+- 학생부교과 : 12%
+- 출결 : 12%
+- 서류 (경기실적) : 70%
+따라서, 경기지도학과에서는 출결이 전체 전형요소 중 12%의 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.6463415622711182</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.
+이 정보는 "전형일정" 표에서 확인할 수 있으며, 해당 표의 "모집인원" 열에 나와 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9667339324951172</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후 (입학안내 홈페이지에서 조회 가능)
+상세 일정은 공식 입학 안내 웹사이트를 참조하시면 더 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7716229557991028</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 주어진 표들은 다른 학과와 전형 유형에 대한 정보를 담고 있으며, 응용화학과의 수능 최저기준은 포함되어 있지 않습니다.
+수능 최저기준을 확인하려면 다음과 같은 방법들을 추천드립니다:
+1. 동의대학교 공식 홈페이지를 방문하여 2024학년도 정시 모집요강을 확인합니다.
+2. 입학처나 학과 담당자에게 직접 문의하여 확인합니다.
+3. 제공된 표들과 함께 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 추가 정보를 얻습니다.
+만약 응용화학과에 대한 수능 최저기준이 변경되었거나 특정 조건을 부여하는 경우, 해당 정보는 공식 모집요강이나 입학처에서 제공할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5551642179489136</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 / 부동산자산경영학부 (부동산투자학, 부동산개발경영학) 
+3. 상경대학 / 스마트항만물류학과 - 신설
+4. 상경대학 / 창업투자경영학과 - 신설
+5. 인문사회과학대학 / 심리학과 - 신설
+이 외에도 일부 학과의 교직 과정 등이 신설되었으나, 주요 신설 학과는 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.967357873916626</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 모든 모집단위에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9594511985778809</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 공과대학 및 ICT융합공과대학 모집단위에 응시하는 경우, 수학(미적분 또는 기하)을 응시한 학생에게는 수학 취득 표준점수의 10%가 가산점으로 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9782137870788574</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체): 25%
+- 수학(확률과통계 or 미적분 or 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목): 각 25%
+이러한 반영 비율은 모든 가군의 일반학생전형에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8631709814071655</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 **2024. 01. 17.(수)**입니다.
+이 정보는 "전형일정" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8516644835472107</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과는 실기/실적 위주 전형으로 변경되어 포함되지 않습니다.
+이를 확인하기 위해 전형요소 반영비율 표를 살펴보면:
+``` 
+[표 내용]
+```
+...
+나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계)) / 401 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음 /
+...
+```
+디자인조형학과와 체육학과는 이 부분에서 제외되어 실기/실적 위주 전형인 가군 실기/실적(일반학생전형)에 포함됩니다:
+``` 
+[표 내용]
+```
+...
+가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과 / 11 / 일괄 합산 / { 0 /  0 /  0 /  70 /  30 / } / 수능최저기준 없음 /
+가군 실기/실적(일반학생전형) 디자인조형학과, 체육학과 / 24 / 일괄 합산 / { 0 /  0 /  0 /  70 /  30 / } / 수능최저기준 없음 /
+...
+```
+따라서, 2024학년도 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.8599202036857605</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조된 정보:
+- [전형요소 반영비율] 표에서 다군 수능(일반학생전형)의 수능최저기준 항목은 "수능최저기준 없음"으로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.9248797297477722</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 새로운 학과가 신설되었으며, 일부 전공은 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+추가 유의사항으로, 접속이 차단되는 시간을 고려하여 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8800454139709473</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **나군 학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**:
+   - **공동체역량 평가**에서 학교폭력 기재 사실이 확인될 경우, 학교폭력 조치 내용의 정도에 따라 감점 또는 불합격 처리됩니다.
+2. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역의 최고점은 700점, 최저점은 490점입니다.
+   - 동점자 처리 기준에서 교과 성적 산출 방법이 추가되었습니다. 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 전 과목 석차등급 평균을 사용합니다.
+3. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역의 부정적 사례가 추가되었습니다.
+   - 면접평가 영역별 세부 평가 기준이 추가되었습니다.
+4. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 지원자격에서 산업체 적용 범위와 재직기간 산정 기준이 추가되었습니다.
+5. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 전형요소 반영비율에서 서류와 면접의 비율이 70%:30%로 고정되었습니다.
+위 내용을 통해 동의대학교 2024학년도에 주요 변경된 전형 요소를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8912384510040283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과를 제외한 모집단위의 실기 비중은 30%입니다.
+이 정보는 다음과 같은 표에서 얻을 수 있습니다:
+[표 속성]
+``` 전형명 / 모집단위 / 전형요소 반영비율{ 수능 / 실기 } ```
+[표 내용]
+```
+가군 수능 (일반학생전형) / 전 모집단위(레저스포츠학과, 태권도학과 제외) / { 100% /  - / } /
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / } /
+```
+따라서 가군 실기/실적 전형에서 일반적으로 실기는 30%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.896169900894165</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업 창업 투자학 (Start-up and Investment Studies)
+- 뷰티 비즈니스학 (Beauty Business Studies) 
+- 라이프 생활 문화학 (Life Culture Studies)
+따라서, 라이프융합학부는 3가지 세부 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7121373414993286</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9517033100128174</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "나군 실기/실적(일반학생전형)"은 다음과 같은 학과에 적용됩니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+3. 레저스포츠학과 
+4. 태권도학과
+따라서 실기/실적 위주 전형을 지원하려는 경우, 해당 학과 중에서 원하는 학과를 선택하여 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9530762434005737</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 미래융합대학의 라이프융합학부는 신설된 학부로, 다음과 같은 전공들을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+这三个专业都是该新设立的学部提供的主要方向。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.870352029800415</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你在询问是否可以作为特殊教育高中学生申请동义大学的一般学生入学考试。根据提供的信息，东义大学的普通学生入学考试（一般学生）对高中的毕业生开放，并没有特别提到排除特殊教育高中学生。
+因此，如果你是特殊教育高中毕业的学生，你是有资格申请东义大学的一般学生入学考试的。
+不过为了确保准确性和最新的招生政策，请直接访问东义大学官方网站或联系学校的招生办公室进行确认。网站上的信息可能会有所更新或变化。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.4144357740879059</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원을 확인해야 합니다. 제공된 정보 중에서 정원이 명시된 학과들을 살펴보겠습니다.
+1. **학생부종합(평생학습자전형) - 정원외** : 11명
+2. **학생부종합(성인학습자(정원내)전형)** : 7명
+3. **학생부종합(성인학습자(정원외)전형 - 정원외)** : 40명
+4. **학생부종합(재직자전형) - 정원외** : 7명
+5. **학생부종합(조기취업형계약학과전형) - 정원외** : 21명
+이 중에서 가장 많은 인원을 모집하는 학과는 **학생부종합(성인학습자(정원외)전형 - 정원외)**로 40명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **학생부종합(성인학습자(정원외)전형 - 정원외)**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.8971717357635498</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请东义大学的学生部课程时，作为特殊教育高中学生是否符合条件，需要看具体的招生要求。根据提供的信息：
+- **农渔生源型**（農魚生源型）的申请资格包括：
+  - 对于6年制课程：在农村（乡、镇）地区中学和高中期间，你本人及父母双方（如果父母一方去世或离婚，则不在此限）都居住在农村（乡、镇）地区。
+  - 对于12年制课程：无论父母的居住地如何，你在初中到高中的整个学习过程中都在农村（乡、镇）地区的学校就读并居住。
+因此，如果你满足上述条件之一，作为特殊教育高中学生是可以申请东义大学的学生部农渔生源型的。建议你仔细查看具体的招生简章或直接联系学校确认详细信息。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3814832866191864</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적 정보는 제공된 데이터에서 찾을 수 없습니다. 
+다만, 같은 전형방식인 다군 수능(일반학생전형)의 동점자 처리기준 표에서 소프트웨어공학부 관련 정보를 확인할 수 있습니다:
+- 다군 수능(일반학생전형) / 소프트웨어공학부 / 학업역량: 180점
+- 다군 수능(일반학생전형) / 소프트웨어공학부 / 전공적합성: 120점
+이 정보는 합격자들의 평균 성적이 어느 정도였을 것으로 추정할 수 있지만, 정확한 평균 점수를 알기 위해서는 해당 모집단위의 합격자 명단과 성적 정보가 필요합니다.
+만약 더 자세한 정보가 필요하시다면, 동의대학교 입학관리팀에 직접 문의해보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.8104082345962524</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 주어진 표는 공과대학의 제품디자인공학과와 ICT융합공과대학의 전기공학과, 전자공학과 등에 대한 정보만을 포함하고 있습니다.
+소프트웨어공학부에 대한 최초 합격자 평균 성적은 다음과 같은 표에서 찾을 수 있습니다:
+- **표 제목**: 수능(일반학생전형) 최종등록자
+- **속성**: 단과대학 / 2024학년도 모집단위 / 모집 인원 / 지원 인원 / 경쟁률 / 충원 합격 (후보순위) / 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 } / 영어 등급 { 평균 / 표준 편차 } / 수능 4개 영역 등급 { 평균 / 표준 편차 } / 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+이 표에서 소프트웨어공학부에 대한 정보를 찾아보시기 바랍니다. 만약 해당 정보가 포함되어 있지 않다면, 동의대학교 입학 홈페이지나 관련 공지사항을 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8056092858314514</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)의 최초합격자는 홈페이지를 통해 실시되며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다. 
+具体的来说，首次录取结果将在学校网站上公布，并且所有申请者必须在招生日程表中规定的公布日期内检查自己的录取情况。
+- 최초합격자는 홈페이지를 통해 실시되며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다.
+- 1차 충원합격자 및 2차 충원합격자의 발표도 홈페이지를 통해 이루어집니다.
+因此，具体的来说，首次和后续补充录取结果都会通过学校网站公布，并且申请人需要在招生日程表中指定的日期内登录官网查询自己的录取状态。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.7073231935501099</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>면접은 일반적으로 개별적으로 진행되며, 시간당 10분 이내로 이루어집니다. 정확한 일정은 각 모집단위에서 안내会给您提供一个大致的时间表，具体的时间安排请参考各招生单位的通知：
+- **报到时间**：通常会在面试当天或前一天进行身份确认。
+- **面试流程**：
+  1. 在候考室等待
+  2. 确认身份
+  3. 移动到考场外
+  4. 进入考场
+  5. 发表关于申请动机和学业计划的演讲
+  6. 回答与学业能力、专业匹配性相关的共同问题及提问
+  7. 其他事项确认（使用面试问题清单验证提交文件的真实性）
+- **注意事项**：请穿着校服，不要暴露个人身份信息（如学号、姓名、毕业学校等），并且在面试过程中不要穿校服。
+具体的时间安排和流程，请务必参考各招生单位的通知。如果有任何疑问，可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.4971446394920349</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다. 
+추가적으로, 지원 자격에는 다음과 같은 조건이 있습니다:
+1. 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+2. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+3. 한의예과는 특정 과목을 반영하므로, 해당 과목 성적도 확인해야 합니다.
+상세 내용은 동의대학교 입학처 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5397567749023438</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到具体的"수능 최저학력기준"(最低学力标准),但是根据其他信息可以推断,东国大学在某些情况下可能会设定最低入学要求。具体来说:
+1. 在一些特殊类型招生中会考虑最低分数线:
+例如,对于平生学习者(평생학습자)、成人学习者(성인학習者)和在职人员(재직자)等类型的招生,虽然主要依据学生背景进行评估,但也会参考一定的学力标准。
+2. 对于部分专业可能会设定特定的科目要求:
+例如,对于医学相关专业,会特别关注数学和自然科学科目的成绩。
+3. 一般情况下,学校会根据各专业的特点来制定相应的录取条件,而这些条件通常会包括最低的学力要求。
+4. 学校还可能参考学生的高中学业成绩、社会实践经历等因素进行综合评估。
+因此虽然没有明确提到"수능 최저학력기준",但可以推测东国大学在正取生招生时会有一定的最低入学标准,具体要求可能会因专业和类型而异。建议直接访问学校官网或咨询招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.5504673719406128</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 발표됩니다.
+특히 주의할 점은:
+- 이 기간 동안 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있으므로, 이 기간에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+- 모든 지원자는 이 기간 동안 합격 여부를 반드시 홈페이지에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.8991307020187378</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 추가합격자 발표가 시작됩니다. 
+具体的来说，追加合格者公布从2024年2月15日（星期四）开始。以下是详细的发布时间安排：
+- 第一次追加合格者公布：2024年2月14日（星期三）9:00
+- 第二次追加合格者公布：2024年2月15日（星期四）9:00
+- 第三次及之后的追加合格者公布：2024年2月15日（星期四）19:00 至 2024年2月20日（星期二）18时
+所有申请人都需要在公布的日期内通过学校网站查询自己的合格状态，并按照规定的时间和地点缴纳注册金。</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.7982848882675171</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 또한, &lt;나&gt;군의 일부 전형(실기/실적(경기실적우수자전형), 학생부교과(농어촌학생전형), 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형))의 결원인원은 정시&lt;나&gt;군으로 이월하여 선발합니다.
+따라서 추가모집이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9677176475524902</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학력을 인정받고 입학할 수 있는 전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집 단과대학 및 계열:
+   - 미래융합대학 인문사회 학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 기타 다양한 학부와 전공
+3. 모집인원: 11명 (학생부종합 평생학습자전형)
+4. 지원 자격 증빙 서류:
+   - 고등학교 학교생활기록부
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고등학교 졸업(예정)증명서 및 성적증명서 (외국고등학교 졸업 예정자)
+5. 전형 요소 반영 비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+6. 서류 제출 기간 및 장소:
+   - 제출기간: 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분
+   - 제출장소: 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+7. 추가 서류:
+   - 외국고등학교 졸업 예정자는 졸업 후 2024년 2월 16일 (금)까지 졸업증명서 제출 필요
+8. 동점자 처리 기준:
+   - 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자 순으로 선발
+평생학습자전형은 평생교육을 받은 학력을 인정받고 대학에 입학할 수 있는 기회를 제공합니다. 자격 요건과 서류 제출 사항 등을 잘 확인하여 지원하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8079971075057983</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.8883272409439087</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 다음과 같이 안내되어 있습니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 실시됩니다. 
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+실기고사 당일에는 대기실 및 입실시간 안내가 제공되며, 이 정보는 2024년 1월 12일(금)부터 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 정확한 장소는 아직 공지되지 않았지만, 해당 학과의 실기고사 일정에 따라 대학교 내에서 실시될 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7850508093833923</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+- **모집단위**: 체육학과
+- **실기종목**:
+  - 제자리 멀리뛰기 (240점, 24%)
+  - 메디신볼 던지기 (243점, 23%)
+  - Z-런 (230점, 23%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B를 당일 추첨하여 연결된 주제로 준비해야 합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+- **주의사항**:
+  - 운동복 및 운동화를 착용해야 합니다 (스파이크, 축구화 등 특수화는 불가능하며 신발바닥에 이물질 가칠 수 없습니다).
+  - 메디신볼 규격은 남자 3kg, 여자 2kg입니다.
+  - 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+  - 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+이러한 정보를 참고하여 체육학과의 실기고사 준비를 진행하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5254440307617188</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2차 및 3차 충원합격자 발표 시에는 개별 전화 통보를 하지 않습니다. 합격 여부 확인은 모두 입학관리 홈페이지에서 직접 조회해야 합니다.
+따라서, 수시 충원합격자 발표 후에도 학생들은 다음과 같이 주의해야 합니다:
+1. 홈페이지를 통해 합격 여부를 확인해야 합니다.
+2. 등록금 납부 기한 내에 온라인으로 등록해야 합니다.
+3. 등록하지 않으면 등록(입학) 포기자로 간주됩니다.
+만약 합격 통보를 받았다면, 지정된 등록일까지 등록금을 납부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.9375076293945312</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터에서 찾을 수 없습니다. 제공된 정보는 주로 2024학년도의 모집요강과 일정, 전형방법 등에 초점을 맞추고 있습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학관리 홈페이지를 방문하여 과거 자료를 확인해보세요.
+2. 교육부나 한국대학입학처 등 공식 웹사이트에서 관련 정보를 찾아보세요.
+3. 동의대학교 입학홍보관이나 학과 담당자에게 직접 문의해보세요.
+이러한 방법들을 통해 2023학년도 경찰행정학과 수시모집 결과에 대한 자세한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.7819535136222839</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 농어촌학생전형과 성인학습자전형 등은 수능 없이 지원할 수 있습니다.
+특히 주목해야 할 점들은 다음과 같습니다:
+1. **농어촌학생전형**:
+   - 6년 과정: 농어촌 지역 소재 중·고등학교에서 전 교육과정을 이수한 자
+   - 12년 과정: 농어촌 지역 소재 초·중·고등학교에서 전 교육과정을 이수한 자
+2. **성인학습자전형**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+3. **평생학습자전형, 재직자전형 등**:
+   - 일부 전형에서는 고교 졸업(예정)자가 아닌 성인 학습자를 대상으로 합니다.
+따라서 수능을 응시하지 않은 지원자는 위와 같은 특별한 전형을 통해 지원할 수 있습니다. 하지만 일반적으로는 수능 점수를 반영하는 전형에서는 수능 응시가 필수입니다. 정확한 자격 요건과 지원 가능 여부는 동의대학교 입학 홈페이지나 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5894598960876465</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 대학의 정시모집에서는 지원이 불가능합니다. 대부분의 대학은 고등학교 졸업 후 3년 이내에 입학하기 위한 제도를 운영하고 있습니다.
+하지만 동의대학교의 경우, 일부 특별한 전형에서 오랜 기간 경과한 학력자도 지원할 수 있는 경우가 있습니다. 예를 들어:
+1. **나군 학생부종합(평생학습자전형)**: 이 전형은 고등학교 졸업 후 3년 이상이 지났더라도, 평생학습을 통해 다양한 경험과 역량을 쌓은 지원자를 대상으로 합니다.
+2. **나군 학생부종합(성인학습자(정원내)전형)**: 이 전형도 고등학교 졸업 후 3년 이상이 지났더라도, 성인학습자의 특성을 반영한 전형입니다.
+따라서, 10년 전에 졸업했다면 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. 동의대학교의 정시모집 전형 안내 페이지를 확인해보세요.
+2. 나군 학생부종합(평생학습자전형) 또는 나군 학생부종합(성인학습자(정원내)전형)에 지원할 수 있는지 확인하세요.
+3. 해당 전형의 지원 자격과 제출 서류 등을 체크하고 준비하세요.
+더 궁금하신 점이 있으시면, 동의대학교 입학처 웹사이트나 전화로 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.8690382242202759</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 6일 (토)
+   - 마감시간: 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+2. **서류제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 12일 (금)
+   - 마감시간: 17시까지 도착
+   - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+3. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과 태권도학과: 2024년 1월 16일 (화)
+4. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수)
+   - 체육학과: 동일 날짜
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+     - 3차 이후: 개별 전화 통보
+6. **등록금 납부**:
+   - 지정 기간 내에 등록금을 납부해야 합니다.
+이 일정은 일반적으로 동의대학교 정시 모집에서 적용되지만, 최종 일정은 공식 입학 안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9706982374191284</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착분에 한함
+   - 접수장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수)
+   - 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+     - 3차 이후: 개별 전화 통보
+7. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 9시 ~ 16시
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 9시 ~ 16시
+8. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 3차 이후: 개별 전화 통보 시 안내
+이 일정은 일반적으로 동의대학교 정시 모집에서 지원자가 참고해야 하는 주요 단계입니다. 각 단계별로 필요한 서류 제출, 실기고사 참여 등에 대한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.960456371307373</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**
+2. **학생부종합(성인학습자(정원내)전형)**
+3. **학생부종합(성인학습자(정원외)전형)**
+4. **학생부종합(재직자전형)**
+이러한 전형들은 수능 점수를 요구하지 않거나, 수능 미응시자도 지원이 가능하도록 제정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.650076687335968</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집일정을 바탕으로 추론해보면, 전자공학과와 같은 과목의 충원 절차는 다음과 같습니다:
+1. 최초합격자 발표 및 등록 (2월 2일 ~ 8일)
+2. 1차 충원 합격자 발표 및 등록 (2월 14일 ~ 15일)
+3. 2차 충원 합격자 발표 및 등록 (2월 15일 ~ 16일)
+따라서 전년도에 전자공학과의 충원 합격은 최소한 2차까지 이루어졌을 가능성이 높습니다.
+하지만 정확한 정보를 얻기 위해서는 동의대학교 입학관리팀이나 공식 홈페이지를 통해 확인하는 것이 가장 확실합니다. 웹사이트에 게시된 최신 모집요강과 일정을 참고하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5969962477684021</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学入学处的电话号码。建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）以获取最新的联系方式，包括入学处的联系电话等信息。如果网站上仍然找不到相关信息，您可以尝试通过网站上的在线咨询服务或电子邮件联系入学处。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4115268588066101</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9905821084976196</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정 지원 자격에 해당하는 농어촌 학생은 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부
+특히 주목할 점은:
+- 주민등록초본은 최신의 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 부모가 사망하거나 이혼한 경우에는 추가적인 증빙서류가 필요합니다.
+12년 과정 지원 자격에 해당하는 농어촌 학생은 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부
+이 경우에도 주민등록초본은 최신의 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+제출 기간은 2024년 1월 3일(수)부터 1월 12일(금)까지이며, 제출 장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9088255167007446</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 주의사항은 다음과 같습니다:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다.
+- 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.8057334423065186</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于低收入机会均等类型的单独招生计划。根据现有内容，东义大学的正取生招生主要分为以下几个类型：
+1. **가군 수능(일반학생전형)** - 基于学力考试的一般学生型录取
+2. **나군 실기/실적(일반학생전형)** - 实际技能/成绩一般学生型录取
+3. **나군 실기/실적(경기실적우수자전형)** - 体育特长优秀者实际技能/成绩录取
+4. **나군 학생부종합** - 学生综合评价录取，包括平生学習者、成人学习者（正取名额内）、成人学习者（非正取名额内）、在职人员等。
+5. **다군 수능(일반학생전형)** - 基于学力考试的一般学生型录取
+没有明确提到针对低收入家庭的学生有单独的招生计划。如果有这样的计划，通常会在学校的官方网站或招生简章中有详细说明。
+建议直接访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生信息和政策，以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5086579918861389</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급은 소수점 셋째 자리까지 반올림하여 처리됩니다. 따라서 2.5등급의 경우, 소수점 셋째 자리에서 절사하면 3등급이 됩니다.
+따라서 수능 사탐 2과목 평균산출에서 2.5등급이 나온다면, 이는 3등급으로 반올림되어 처리됩니다.
+참조로 등급 평균 산출 시 절사 방법은 다음과 같습니다:
+1. 두 과목의 등급을 더한 후 2로 나눕니다.
+2. 결과를 소수점 셋째 자리까지 표현합니다.
+3. 소수점 셋째 자리에서 절사하여 최종 등급 평균을 결정합니다.
+따라서 2.5등급은 3등급으로 반올림되어 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.7250394821166992</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 3차까지 있습니다.
+발표 일정은 다음과 같습니다:
+1. 2024년 2월 14일(수) 09:00 - 1차 충원 합격자 발표
+2. 2024년 2월 15일(목) 09:00 - 2차 충원 합격자 발표
+3. 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지 - 3차 이후 충원 합격자 발표 (개별 전화 통보)
+이 중 1차와 2차는 홈페이지를 통해 개별적으로 조회할 수 있으며, 3차 이후의 경우 개별 전화통보 방식으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9244509935379028</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과的相关信息。根据提供的表格内容，“多军（一般学生入学考试）招生单位及名额”中提到：
+```
+商经学部 / 商经 / e商务学 / 10 /
+```
+这表明e商务学的招生名额是10个。
+接下来，我们需要查看“多军（一般学生入学考试）录取标准”中的相关信息。但是提供的信息中并没有直接列出具体的录取分数线或标准。通常情况下，大学会根据考生的综合成绩来决定是否录取，而综合成绩包括了高考成绩和其他可能的因素（如面试、特长等）。
+对于e商务学来说，其录取标准可能会参考国语、数学和英语的成绩，并且可能会有特定的比例分配给这些科目。具体到您的问题：
+- 国语：25%
+- 数学：25%
+- 英语：25%
+- 研究领域（社会研究或科学研究 - 两个科目的总分）：25%
+假设您提到的4.6是指英语成绩，那么我们需要知道其他科目的具体分数来计算综合成绩。
+例如：
+- 假设国语为90分
+- 数学为85分
+- 英语为4.6（等第）
+- 研究领域为70分
+根据“高考成绩反映方法”中的信息，英语等级转换成分数如下：
+```
+1 / 139 /
+2 / 131 /
+3 / 123 /
+4 / 115 /
+5 / 107 /
+6 / 99 /
+7 / 91 /
+8 / 83 /
+9 / 75 /
+```
+因此，英语等级为4.6对应的是115分。
+综合成绩计算如下：
+\[ (90 + 85 + 115 + 70) \div 2 = 260 \div 2 = 130 \]
+这个分数是否足够录取取决于e商务学的具体分数线。如果该分数线低于或等于130分，那么理论上是有可能被录取的。
+但是请注意，这只是一个假设的例子。实际录取情况可能会有所不同，具体还需要参考学校官方发布的详细招生信息和最终的录取分数线。建议直接访问学校官网或者联系学校的招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.5212888717651367</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **eBiz니스학과的录取标准**：根据提供的表格信息，eBiz니스学和的具体录取分数没有直接给出。但是我们可以参考其他类似专业的录取情况。
+2. **考生的成绩**：您提到的5.3等值于430分左右（具体可以参照表中的“国语 + 数学 + 研究(2个) (含加分) 标准转换分数和 { 平均 / 标准差 }”一栏）。
+3. **竞争情况**：需要查看eBiz니스学和的具体招生人数以及报名人数，这可以从表中的“招生人数 / 报名人数 / 竞争比”一栏获取信息。但具体数据没有直接给出，我们需要假设一个合理的竞争比例来进行估算。
+4. **其他因素**：虽然成绩是关键因素之一，但学校还可能考虑学生的综合素质、面试表现等其他因素。
+根据提供的表格信息，我们可以进行以下分析：
+- eBiz니스学和的招生人数为30人。
+- 从表中可以看到，一些类似的专业（如e비즈니스학과）的竞争比相对较低。例如，e비즈니스學和的竞争比是10:1。
+假设eBiz니스学和的竞争比例也是类似的，即大约10:1左右：
+- 如果竞争比为10:1，则30个名额对应约300名考生。
+- 5.3等值于430分左右，在这个分数段内，有较高的机会获得录取。
+综上所述，如果eBiz니스学和的竞争比例是10:1，并且报名人数在合理范围内（例如300人），那么一个5.3等值的考生有很大的可能性会被该专业录取。当然，最终结果还需要根据实际招生情况来确定。建议关注学校发布的最新信息并做好准备。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.4539908766746521</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看与eBiznesis学专业相关的录取标准和要求。但是，您提供的信息中并没有直接提到eBiznesis学专业的具体录取分数或标准。我们可以参考一些通用的入学标准来推测。
+根据您提供的数据，可以了解到：
+1. **综合评价**：对于学生部综合（平生学习者/成人学习者(定员内外)）和在职人员来说，有以下几个评分等级：
+   - 学业能力 (学業역량): 240分 (1等)，222分 (2等)，204分 (3等)，186分 (4等)，168分 (5等)
+   - 专业适应性 (전공적합성): 240分 (1等)，222分 (2等)，204分 (3等)，186分 (4等)，168分 (5等)
+2. **其他因素**：除了学业能力和专业适应性的评分外，还需要考虑面试成绩（对于在职人员来说是40%的权重）。
+假设eBiznesis学专业的录取标准与上述类似，那么38分的成绩可能不足以达到1等或2等的标准。具体是否能预录取需要看具体的招生政策和该专业的实际录取分数线。
+建议您：
+- 查阅eBiznesis学专业具体的招生简章。
+- 联系学校招生办公室获取更准确的信息。
+- 如果有可能，可以咨询已经就读于该专业的学生或者学长学姐以获得第一手经验分享。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4919783771038055</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확정적으로 말하기는 어렵지만, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **전체 모집인원 및 지원자 수**: 동의대학교 간호학과의 정시모집에서 전체 모집인원과 지원자 수를 확인해야 합니다.
+2. **성적 기준**: 동의대학교 간호학과의 성적 기준을 확인해보세요. 이는 학교 홈페이지나 입학 안내서 등을 통해 얻을 수 있습니다.
+3. **고교 유형별 지원 자격**: 표에서 보시듯이, 간호학과는 특정 고교 유형(예: 특수목적고)에 대한 지원 자격 기준이 있습니다. 3.44의 성적이 해당 기준을 충족하는지 확인해야 합니다.
+4. **전체 평가 영역**: 동의대학교 간호학과는 학업역량, 공동체역량, 전공적합성 등 다양한 평가 영역을 고려합니다. 따라서 단순히 성적이 높다고 해서 모든 평가 영역에서 우수한 점수를 받지 못하면 합격 가능성은 낮아질 수 있습니다.
+5. **면접 및 서류 평가**: 면접과 서류 평가는 학업성적 외에도 지원자의 전반적인 적합성을 판단하는 중요한 요소입니다. 따라서 이 부분에서도 좋은 성적을 받는 것이 중요합니다.
+6. **최종 합격자 발표**: 실제 최종 합격자는 여러 요인에 따라 결정되므로, 단순히 성적이 높다고 해서 반드시 합격한다는 보장은 없습니다.
+따라서 3.44의 성적만으로는 확정적으로 합격 가능성을 판단하기 어렵습니다. 전체적인 지원 자격과 평가 기준을 종합적으로 고려해야 합니다. 만약 불확실성이 있다면, 동의대학교 입학 홈페이지나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7073236703872681</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 등급으로 보이는데, 동의대학교 간호학과에 대한 정확한 입학 기준을 확인하기 위해서는 해당년도의 정시 모집요강이나 최종 합격자 정보를 참조해야 합니다.
+현재 제공된 정보만으로는 2.52라는 점수가 어떤 과목의 등급인지, 그리고 동의대학교 간호학과의 실제 입학 기준이 어떻게 되는지 알 수 없습니다. 
+간호학과의 경우 보통 다음과 같은 요소들이 고려됩니다:
+1. 수능 성적
+2. 학교생활기록부 (학생부)
+3. 면접 결과
+특히 간호학과는 실무 능력이 중요하기 때문에, 학생부에서의 진로 관련 활동이나 경험도 중요한 평가 요소일 것입니다.
+따라서:
+1. 해당년도 동의대학교 간호학과의 정시 모집요강을 확인하세요.
+2. 최종 합격자들의 성적과 학생부를 참조해 보세요.
+3. 자신의 점수와 기준을 비교해보세요.
+만약 구체적인 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7134897708892822</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 대체로 중간적인 점수입니다. 간호학과는 일반적으로 낮은 수능 점수를 요구하지 않으며, 주로 실기와 인성 면접 등 다양한 평가 요소를 고려합니다.
+다만 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보들이 필요합니다:
+1. 간호학과의 모집요강 및 전형방법: 각 대학별로 수능 점수, 실기 성적, 인성 면접 등 평가 요소와 비율이 다를 수 있습니다.
+2. 해당 학교에서 요구하는 최저 수능 점수: 일부 대학은 특정 학과에 대해 최저 수능 점수를 설정할 수 있습니다.
+3. 실기 성적 및 인성 면접 등 다른 평가 요소의 중요도: 간호학과는 종종 실기 성적이 중요한 역할을 하므로, 해당 학교에서 요구하는 실기 성적 기준을 확인해야 합니다.
+4. 경쟁률: 각 대학별로 간호학과의 모집인원과 지원자 수를 고려하여 경쟁률을 파악하면 도움이 됩니다.
+따라서 정확한 답변을 드리기 위해서는 해당 학교의 정시 모집요강 및 전형방법을 확인하시고, 자신의 실기 성적과 인성 면접 준비 상태를 평가해보시는 것이 좋습니다. 필요하다면 해당 대학 입학처에 문의하시는 것도 좋은 방법입니다.
+추가적으로, 수능 점수 외에도 학생부와 자기소개서 등 다양한 평가 요소를 고려하므로, 전반적인 지원 자질을 최대한 발휘할 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6717913746833801</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서는 다음과 같은 정보가 주어졌습니다:
+- 모집인원: 110명
+- 지원 인원: 22명 (경쟁률은 표에 명시되어 있지 않으나, 지원 인원이 적다는 점을 고려)
+- 합격자 발표 일정 등은 표에 명시되어 있지 않으므로 정확한 정보는 확인 필요
+간호학과의 경우 일반적으로 수능 성적 기준이 높은 편이며, 2.58이라는 성적이 모집인원 110명 중에서 22명만 지원하는 상황에서는 충분히 합격 가능성은 있습니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는:
+1. 해당 과정의 최저 합격 점수를 확인해야 합니다.
+2. 다른 지원자의 성적 분포를 파악해야 합니다.
+3. 모집인원과 지원 인원 간의 차이 등을 고려해야 합니다.
+현재 정보로만 판단하면 2.58이라는 성적이 상대적으로 높은 점수라는 것을 감안할 때, 합격 가능성은 있지만 확실하지 않습니다. 최종 합격 여부는 모집단위별 최저합격 점수가 공개되는 시점에서 확인해야 합니다.
+추가 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7162005305290222</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要更多的信息。您是想了解是否能够被游戏学系（게임공학과）的预录取编号为7的学生所对应的班级或项目录取吗？通常情况下，预录取编号只是表示您在申请者中的排序，并不直接决定能否被录取。
+1. **查看录取标准**：请确认游戏学系的具体录取标准和名额。每个专业的具体招生人数可能会有所不同。
+2. **了解竞争情况**：了解其他申请者的具体情况，包括他们的成绩和其他评价指标（如面试表现、推荐信等）。
+3. **咨询学校**：直接联系东义大学的入学办公室或相关学院获取最准确的信息。
+如果您有具体的录取分数线或其他相关信息，请提供给我，我可以帮助您进一步分析。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4177562892436981</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 국어, 수학, 영어 등급을 반영한 점수로 보이는데, 이 점수만으로 정확히 어떤 전형에 합격할 수 있는지 예측하기는 어렵습니다. 게임공학과의 모집요강과 해당 전형의 경쟁률, 지원자의 개인적인 성적 외 요인 등을 고려해야 합니다.
+다음은 일반적으로 참고할 만한 정보입니다:
+1. **수능 성적 반영 방식**: 동의대학교는 수능 성적을 다음과 같이 반영합니다:
+   - 국어(화법과작문 or 언어와매체) 25%
+   - 수학(확률과통계 or 미적분 or 기하) 25%
+   - 영어 등급 25%
+   - 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목) 25%
+2. **경쟁률**: 게임공학과의 정시 전형 경쟁률을 확인해야 합니다. 이 정보는 동의대학교 입학 홈페이지에서 확인할 수 있습니다.
+3. **모집인원 및 지원자 수**: 해당 모집단위의 정원과 지원자의 수를 파악해야 합니다.
+4. **추가 합격 가능성**: 4.16이라는 점수로는 경쟁률이 높은 전형에서는 추가 합격을 받기 어렵습니다. 그러나 일부 경쟁률이 낮은 전형이나 특별전형에서는 가능성이 있습니다.
+5. **개인적 요인**: 지원자의 면접 성적, 서류 평가 점수 등 개인적인 요인이 합격에 영향을 미칠 수 있습니다.
+따라서 정확한 추가 합격 가능성 예측은 동의대학교 입학 홈페이지에서 제공하는 최신 정보와 지원자의 전체 성적 및 경쟁률 등을 종합적으로 고려해야 합니다. 필요하다면, 동의대학교 입학처로 문의하거나 전문가의 조언을 구하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6550045013427734</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024년 동일한 상황을 고려해보겠습니다.
+1. **최초합격자 발표 일정**: 2024년 2월 2일(금) 14:00에 최초 합격자를 발표합니다.
+   - 이때, 경영정보학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 평균을 확인해야 합니다.
+2. **경쟁률 및 성적**: 
+   - 경영정보학과는 경쟁률이 높은 학과일 가능성이 있습니다.
+   - 3.75의 성적이 평균 이상이라면 최초합격자로 선발될 가능성은 있습니다.
+3. **성적 기준**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 확인해야 합니다.
+   - 예를 들어, 경영정보학과의 평균이 4.0이라면 3.75는 약간 낮은 성적일 수 있습니다.
+4. **최종등록자 발표 일정**:
+   - 최초합격자 발표 이후 충원 합격자를 발표하며, 이때도 동일한 점수 기준을 적용합니다.
+   - 3.75의 성적이 평균보다 약간 낮다면, 충원 합격자로 선발될 가능성은 있습니다.
+따라서, 3.75의 성적만으로 최초합격자를 확신하기는 어렵습니다. 경영정보학과의 실제 평균 점수와 비교하여 판단해야 합니다. 
+**추천 사항:**
+- **성적 확인**: 해당 학과의 정확한 평균 점수를 확인하세요.
+- **면접 준비**: 성적이 약간 낮더라도 면접에서 좋은 인상을 남기면 도움이 될 수 있습니다.
+결론적으로, 3.75의 성적만으로 최초합격자를 확신하기 어렵습니다. 실제 평균 점수와 비교하여 판단하고, 추가적인 준비를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6803202033042908</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024년도 동일 모집단위의 경영정보학과에 대한 정보를 바탕으로 답변드리겠습니다.
+수능(일반학생전형) 최종 등록자의 경우, 표에서 제공된 데이터를 보면 다음과 같은 경쟁률이 있습니다:
+- 0~2일: 120명
+- 3~6일: 90명
+- 7~12일: 60명
+- 13~20일: 30명
+- 21일 이상: 0명
+이 데이터는 등록일 기준으로 지원자의 수를 나타내며, 경쟁률은 모집인원 대비 지원자 수를 의미합니다. 예를 들어, 7~12일에 60명이 등록했다면, 해당 기간 동안의 경쟁률은 60:30입니다.
+따라서, 경영정보학과의 모집인원을 확인해야 합니다. 표에서 제공된 정보는 모집인원과 지원 인원, 경쟁률 등을 보여주고 있습니다. 예를 들어, 경영정보학과의 경우:
+- 2024학년도 모집인원: 3명
+- 지원 인원: 60명
+이렇게 되면 7~12일에 등록한 60명 중 3명만 선발되므로, 경쟁률은 매우 높습니다.
+따라서, 수능 점수가 4.2인 경우, 최초등록자로도 경영정보학과에 합격하기는 어렵다고 볼 수 있습니다. 하지만 정확한 가능성을 판단하려면 해당 모집단위의 모집인원과 지원 인원을 확인해야 합니다.
+추가적으로, 4.2라는 점수는 표준점수로 보이는데, 이 점수가 평균보다 낮다면 경쟁률이 높은 상황에서 최초등록자로 합격하기는 어려울 것입니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.6375974416732788</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（一般学生类型）的录取标准。
+2. 您提供的成绩是否符合该专业的最低要求。
+根据您提供的信息，经营信息学部的一般学生类型的录取情况如下：
+- 最终注册人数：35
+- 报名人数：95
+- 竞争率：2.71
+- 国语 + 数学 + 选修（含加分）标准转换分数总和的平均值与标准差：415.80 / 10.49
+从这些数据来看，经营信息学部的竞争情况相对激烈。但是，仅凭您提供的成绩（5.33），我们需要知道这个成绩对应的科目是什么以及是否包含加分。
+通常情况下，大学会根据学生的国语、数学和选修科目的标准转换分数总和来评估申请者的资格。如果您的成绩是基于这些科目，并且没有特别的加分项，那么可能需要进一步的信息才能确定您是否有资格被录取。
+建议：
+1. 查看东义大学的具体招生简章或联系学校招生办公室获取更详细的信息。
+2. 确认您的具体分数是否符合该专业的最低要求。
+3. 考虑其他因素如面试表现等也可能影响最终的录取结果。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.534221887588501</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>3.33이라는 점수는 전형에서 어느 부분에 반영되는지, 그리고 해당 학과의 평균 점수가 어떻게 되는지를 고려해야 합니다.
+1. **성적 평균 확인**: 먼저 동의대학교 바이오응용공학부의 성적 평균을 확인해보세요. 표에서 보이는 정보로는 정확한 평균은 나오지 않지만, 다른 학과들의 성적 평균을 참고할 수 있습니다.
+2. **성적 반영 방식**: 바이오응용공학부의 성적 반영 방식을 확인해야 합니다. 표에서 보이는 정보로는 전반적으로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 등 석차등급 평균이 반영되는 것으로 보입니다.
+3. **성적 등급 평균**: 3.33은 대략 2등급 정도의 점수로 추정됩니다. 이는 중간 이상의 성적을 의미합니다.
+4. **전형 요소**: 바이오응용공학부는 학생부종합(조기취업형계약학과전형)으로 모집되며, 서류 70%와 면접 30%가 반영됩니다. 따라서 성적이 중간 이상이라면 서류 평가에서 좋은 점수를 받을 가능성이 있습니다.
+5. **합격 가능성**: 합격 가능성은 다음과 같은 요인에 따라 달라질 수 있습니다:
+   - 다른 지원자의 성적과 경쟁 상황
+   - 면접 성능
+   - 서류 평가에서의 강점
+6. **추천**: 
+   - 성적이 중간 이상이라면, 서류와 면접 준비에 집중하는 것이 좋습니다.
+   - 학교생활기록부를 잘 활용하여 지원자의 역량을 보여줄 수 있는 부분을 강조하세요.
+   - 면접에서는 자신감과 적절한 답변을 준비해두세요.
+결론적으로, 3.33 정도의 성적은 바이오응용공학부 최초등록자로 가능할 수 있지만, 경쟁률과 지원자의 전체적인 평가 결과에 따라 달라질 수 있습니다. 따라서 최선을 다하고 면접 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.6756783127784729</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+1. **방사선학과의 모집요건**:
+   - 방사선학과는 일반학생전형으로 모집됩니다.
+   - 수능 성적 기준은 국어, 수학(미적분 또는 기하), 영어 등급을 반영합니다.
+2. **성적 분석**:
+   - 현재 정시 등급이 4.4로, 이는 대략 수능 영어 3등급 정도를 의미합니다.
+   - 방사선학과의 모집요건은 국어, 수학, 영어 등급을 반영하므로, 영어 등급이 중요합니다.
+3. **방사선학과의 수능 성적 기준**:
+   - 방사선학과는 수능 성적을 다음과 같이 반영합니다.
+     - 국어: 4등급 이상
+     - 수학(미적분 또는 기하): 4등급 이상
+     - 영어: 3등급 이상
+4. **결론**:
+   - 현재의 영어 등급이 3등급으로, 방사선학과의 영어 등급 기준을 충족하고 있습니다.
+   - 국어와 수학 성적은 추가적으로 확인해야 합니다.
+따라서, 현재의 영어 등급만으로는 충분하지만, 국어와 수학 성적이 좋다면 더 유리할 것입니다. 정확한 모집요강과 최신 정보를 확인하시고, 필요하다면 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6809492707252502</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66의 평균 등급을 방사선학과에 지원하는 경우, 상대적으로 낮은 점수일 수 있습니다. 방사선학과는 보통 높은 학업역량 요구사항이 있으며, 정시 모집단위 중에서는 비교적 높은 평균 등급을 기록하고 있는 편입니다.
+다음은 고려할 사항들입니다:
+1. **평균 등급**: 방사선학과의 평균 등급이 2.80 이상인 경우, 2.66은 약간 낮습니다.
+2. **모집인원 및 경쟁률**: 해당 학과의 모집인원과 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 낮은 등급으로도 합격할 수 있지만, 경쟁률이 낮다면 낮은 점수로는 합격하기 어려울 수 있습니다.
+3. **전공적합성**: 지원자의 전공적합성 평가에서 좋은 성적이 나와야 합니다. 이 부분에서는 높은 점수가 중요할 수 있습니다.
+4. **면접 및 서류평가**: 면접과 서류평가에서도 좋은 결과를 얻어야 합니다. 특히, 방사선학과는 실무 능력과 관련된 경험이나 활동이 요구될 수 있으므로 이 부분을 잘 준비해야 합니다.
+5. **추천서와 자기소개서**: 추천서나 자기소개서에서 지원자의 강점과 전공적합성을 잘 표현하면 도움이 될 수 있습니다.
+따라서, 2.66의 평균 등급으로 방사선학과에 지원하는 것은 위험할 수 있지만, 다른 요인들을 잘 준비하고 활용한다면 합격 가능성은 여전히 존재합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7530272603034973</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌학생전형에 지원하셨다면, 합격 가능성은 있습니다만 확실하지 않습니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 경찰행정학과의 농어촌학생전형에서는 주로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 등급 평균을 기준으로 합니다.
+2. **등급 평균 산출**: 3.66이라는 성적은 등급으로 환산하면 대략 4등급 정도 됩니다. 이는 중간적인 성적입니다.
+3. **전형 특성**: 농어촌학생전형은 주로 지역 내 지원자들의 경쟁이 이루어지므로, 전반적으로 평균적인 성적이 요구됩니다.
+4. **기타 요소**: 합격 가능성은 교과 성적 외에도 학생부 내용, 동점자 처리 기준 등 기타 요인에 따라 달라질 수 있습니다.
+추가적으로 고려해야 할 사항:
+- **학생부 내용**: 진로선택과목 성적이 높다면 이는 긍정적인 점수입니다.
+- **동점자 처리기준**: 동점자가 발생할 경우, 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 등급 평균이 상위자로 선발됩니다.
+결론적으로 3.66이라는 성적은 합격 가능성이 있지만, 경쟁률과 전반적인 지원자의 성적이 높다면 낮을 수 있습니다. 최종 결과는 입학처에서 발표하는 합격자 명단을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7611097097396851</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 대부분의 경우, 예비후보자 중에서 선발하는 경우는 해당 모집단위의 결원 발생 시에만 이루어지며, 일반적으로는 매우 드뭅니다.
+다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **모집 인원**: 현재 모집 인원이 얼마나 남아있는지 확인해야 합니다.
+2. **예비후보자 수**: 25위라는 순위가 의미하는 것은, 이전에 더 높은 순위의 예비후보들이 이미 등록을 완료하거나 포기했음을 나타냅니다.
+3. **등록 기한**: 지정된 등록 기간 내에 등록금을 납부해야 합니다.
+이러한 상황에서 붙는 확률은 매우 낮습니다. 하지만 최선의 방법으로 다음 단계를 따르세요:
+1. **등록금 납부**: 지정된 기간 내에 등록금을 납부하십시오.
+2. **확인**: 등록 여부를 확인하고, 만약 포기한 경우 다시 등록할 수 있도록 하십시오.
+결론적으로, 붙는 확률은 매우 낮지만, 최소한의 가능성도 있으므로 지정된 기간 내에 모든 절차를 완료하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6802268624305725</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 고려해야 합니다:
+1. **성적 평균**: 
+   - 인문사회과학대학에서 법학과는 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+   - 대체적으로 전반적인 성적이 높아야 안정적으로 합격할 가능성이 높습니다.
+2. **대략적인 목표 점수**:
+   - **국어**: 100점 이상
+   - **수학**: 95점 이상 (특히 수능 수학은 선택영역이 있으므로 미적분이나 기하 중 하나는 응시해야 합니다)
+   - **영어**: 4등급 이상
+3. **전반적인 성적 평균**:
+   - 대략적으로 국어, 수학, 영어 등 주요 과목의 표준점수와 등급을 고려하면 105-110 점 정도의 평균이 필요할 것으로 예상됩니다.
+4. **추천 성적 범위**:
+   - 안정적으로 합격하기 위해서는 108-112 점 사이의 평균을 목표로 해야 합니다.
+   - 만약 경쟁률이 높다면, 113점 이상을 추구하는 것이 좋습니다.
+5. **추가 팁**:
+   - 탐구 과목도 중요하므로 선택과목 중 상위 2개 영역의 성적을 고려해야 합니다.
+   - 수능 성적이 높은 학생들 사이에서 경쟁이 치열하기 때문에 추가적인 지원 자료나 면접 준비가 필요할 수 있습니다.
+이러한 점수를 기준으로 하여 지원하면 안정적으로 합격하거나 문을 닫고 들어갈 가능성이 높아집니다. 하지만 최종 결정은 입학사정관의 평가와 경쟁률에 따라 변동될 수 있으므로, 정확한 정보는 동의대학교 입학처 웹사이트를 확인하시거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7852073907852173</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급은 일반적으로 좋은 점수로 볼 수 있습니다. 그러나 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. 모집인원: 보육가정상담학과의 정원이 얼마나 되는지 확인해야 합니다.
+2. 경쟁률: 해당 학과의 지원자 수와 경쟁률을 고려해야 합니다.
+3. 평균 등급: 동의대학교 전체 또는 해당 학과의 평균 등급을 파악해야 합니다.
+4. 전형 방식: 학생부종합, 수능기반 등 다양한 전형이 있을 수 있으므로, 해당 전형에서의 성적 평가 기준을 확인해야 합니다.
+5. 추가 평가 요소: 면접이나 서류평가 등 다른 평가 항목도 고려됩니다.
+6. 학과 특성: 보육가정상담학과는 특정 전공 능력이나 인성을 중요하게 평가할 수 있으므로, 이에 대한 준비도 필요합니다.
+따라서 정확한 답변을 위해서는 위의 요인들을 종합적으로 고려해야 합니다. 만약 구체적인 정보를 가지고 있다면, 해당 정보를 바탕으로 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7005619406700134</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격에서 예비 12번을 받은 경우, 합격 가능성은 매우 낮습니다. 일반적으로:
+1. 동의대학교는 3차 충원합격자 발표 이후 더 이상 합격자를 추가로 선발하지 않습니다.
+2. 예비 순위가 높아도, 이미 최종 합격자가 결정되어 있을 가능성이 큽니다.
+3. 이전 차수에서 합격한 학생들이 등록을 완료하지 않은 경우를 제외하고는 추가 선발이 어렵습니다.
+4. 3차 충원합격자 발표 이후에는 합격 여부가 더 이상 변경되지 않습니다.
+따라서, 예비 12번으로 받은 경우에는 합격 가능성은 매우 낮다고 볼 수 있습니다. 최종적으로 합격 여부는 입학관리팀에서 확인해야 합니다만, 현실istically 봤을 때 큰 기대를 하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.7661879658699036</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 성적이 정확한 수능 점수인지 확인해야 합니다. 일반적으로:
+1. 정시 모집에서는 국어, 수학, 영어 등급을 기반으로 합격선이 결정됩니다.
+2. 4.75는 대략 B등급 정도로 보입니다. 이 경우:
+   - 국어: B등급 (131점)
+   - 수학: B등급 (131점) 또는 C등급 (123점) 
+   - 영어: B등급 (131점)
+3. 유아교육학과는 대체로 낮은 학력수준을 요구하기 때문에 4.75 등급으로도 충분히 지원 가능할 수 있습니다.
+하지만 정확한 판단을 위해서는:
+- 해당 학과의 최저합격선을 확인해야 합니다.
+- 다른 모집단위와 비교해 보아야 합니다.
+- 탐구 영역 성적도 고려해야 합니다.
+결론적으로 4.75 등급으로 유아교육학과를 지원하는 것은 가능하지만, 합격 확률은 낮을 수 있습니다. 최저합격선이 높다면 더 어렵겠지만, 낮다면 충분히 지원 가능한 성적입니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7898997068405151</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16이라는 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하시려는 계획은 가능성이 있지만, 확실하지 않습니다. 이유는 다음과 같습니다:
+1. **등급별 모집인원**: 보육가정상담학과의 정시 모집인원과 동점자 처리 기준을 확인해야 합니다. 이 정보를 통해 4.16 등급으로 합격할 가능성을 판단할 수 있습니다.
+2. **동점자 처리기준**: 보육가정상담학과의 동점자 처리기준을 살펴보세요. 일반적으로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과 성적 등급 평균이 주요 기준입니다.
+3. **전형별 특성**: 보육가정상담학과는 인성과 전공 적합성이 중요하게 평가되는 학과로 알려져 있습니다. 따라서 학업역량 외에도 인성 및 전공적합성 평가에서 좋은 점수를 받는 것이 중요합니다.
+4. **최종 등급 평균**: 동점자 처리 기준에 따라 4.16 등급이 평균 등급에 어떻게 반영될지 확인해야 합니다. 예를 들어, 다른 과목의 성적이 낮다면 전체 평균은 떨어질 수 있습니다.
+5. **모집인원과 지원자 수**: 해당 학과의 정시 모집인원과 지원자의 수를 파악하여 경쟁률을 판단해야 합니다.
+6. **추합 결과**: 추합까지 고려하면, 다른 과목 성적도 중요합니다. 예를 들어, 국어와 사회 등 인성 관련 교과에서 높은 점수를 받는 것이 유리할 수 있습니다.
+따라서, 정확한 답변을 위해서는 보육가정상담학과의 모집인원, 동점자 처리기준, 그리고 해당 학과의 전형 특성을 고려해야 합니다. 이 정보들을 종합적으로 분석하여 최종적인 판단을 내리는 것이 좋습니다.
+추천: 관련 정보를 확인하고, 입학처 홈페이지나 대학 관계자에게 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6958103179931641</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 동일한 모집단위에 대해 제공된 정보를 바탕으로 답변드리겠습니다.
+- **소프트웨어융합학과의 정시모집 가능 여부**: 소프트웨어융합학과는 정시모집에서 지원할 수 있는 학과 중 하나입니다. 하지만, 해당 학과에 대한 정확한 모집군 정보가 제공되지 않았습니다.
+- **평균 등급 요구사항**: 전반적으로 ICT융합공과대학의 소프트웨어공학부와 비슷한 경쟁률을 고려할 때, 평균 4등급 이상은 필요할 것으로 예상됩니다. 특히, 수능 4개 영역에서 높은 점수를 받는 것이 중요합니다.
+- **추가 정보**: 정확한 등급 요구사항과 모집군은 동의대학교 입학전형요강을 확인하시거나, 해당 대학의 입학처에 문의하시는 것이 가장 정확할 것입니다. 
+따라서, 소프트웨어융합학과를 정시로 지원하려면 4등급 이상의 수능 점수와 전반적인 학업역량을 갖추는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5963488817214966</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>《소프트웨어융합학과의 서류평가와 면접 평가에 대한 답변》
+1. **서류평가 중 세특(세부능력 및 특기사항) 내용의 중요성**:
+   - 소프트웨어 융합 학과에서는 세특 내용이 매우 중요한 역할을 합니다. 이는 지원자의 실질적인 능력과 경험을 평가하는 데 있어 결정적 요소 중 하나입니다.
+   - 세특 내용은 학업역량, 전공적합성 등 여러 평가 영역에서 활용되므로 충분히 자세하고 구체적으로 작성해야 합니다.
+2. **면접 점수와의 상관관계**:
+   - 면접에서는 서류평가에서 보여준 내용을 바탕으로 지원자의 학업역량과 전공적합성을 더 깊게 평가합니다.
+   - 따라서, 면접에서도 세특 내용이 중요하게 다루어지므로, 이 부분은 면접 준비 시도중에도 고려해야 합니다.
+3. **필요한 서류**:
+   - **학교생활기록부**: 소프트웨어 융합 학과에서는 학교생활기록부를 통해 지원자의 학업역량과 전공적합성을 평가합니다.
+   - **외국고교 졸업(예정)자와 관련 서류**:
+     - 공증받은 외국고교 졸업(예정)증명서 1부
+     - 공증받은 외국고교 성적증명서 1부 (만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 함)
+   - **학교생활기록부 대체 서류**:
+     - 선택적으로 제출할 수 있습니다.
+4. **준비 방법**:
+   - **세특 내용 작성**: 학교생활에서의 경험과 활동, 특히 소프트웨어 관련 활동을 구체적으로 기재해야 합니다.
+   - **실제 프로젝트나 경험이 있는 경우**: 이를 자세히 서술하여 지원자의 능력을 입증합니다.
+   - **교사 평가와 근거**: 교사의 평가와 그 근거를 함께 제출하면 더 효과적입니다.
+5. **주의사항**:
+   - 과장된 내용이나 부정적인 사례는 피해야 합니다. 실제 경험과 노력에 기반한 내용을 작성해야 합니다.
+   - 학교생활기록부의 학교폭력 기재 사실이 확인될 경우, 공동체역량 영역에서 감점 또는 불합격 처리될 수 있으므로 주의가 필요합니다.
+이러한 정보를 바탕으로 소프트웨어 융합 학과에 지원하려는 학생들은 세특 내용을 충분히 준비하고, 실제 경험과 노력에 기반한 내용을 작성하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5853361487388611</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자의 수능 평균 점수를 살펴보면 다음과 같습니다:
+- **소프트웨어공학부 (30명 모집)**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 330.11, 표준 편차 9.08
+당신의 수능 점수가 4.08이므로, 이는 표준변환점수로 환산하면 대략 325-335 사이일 것입니다. 이 점수는 평균보다 약간 낮지만, 표준편차를 고려할 때 여전히 합격 가능성이 있습니다.
+결론적으로, 당신의 수능 성적이 소프트웨어공학부 최초합격자의 평균 점수와 비슷하거나 약간 낮은 수준이므로, 최초합격 가능성은 있으나 경쟁력이 높지 않을 수 있습니다. 실제로 합격 여부는 여러 요인에 따라 결정되며, 단순히 평균 점수만으로 판단하기보다는 전체적인 지원자들의 성적 분포를 고려해야 합니다.
+추가적으로, 동의대학교에서는 수능성적 외에도 다른 요소들을 종합적으로 평가하므로, 지원서 작성 및 면접 등에서 좋은 성과를 보여주면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8898886442184448</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터에서 "소프트웨어융합학과"에 대한 정보는 없습니다. 다른 학과들에 대한 등급 정보가 있지만, 소프트웨어융합학과의 정시 평균 등급을 확인할 수 있는 정보는 없습니다.
+만약 소프트웨어융합학과의 정시 평균 5등급으로 지원이 가능하다면, 해당 학과의 모집요강이나 입학처 웹사이트를 참조해야 합니다. 일반적으로 대학별로 각 학과의 최저 등급 기준이 다르므로, 공식 정보를 확인하는 것이 가장 정확합니다.
+추가적인 정보나 자세한 문의사항은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 참조하시거나 입학처에 직접 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.8714406490325928</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 표준점수는 상당히 높은 점수입니다. 동의대학교 신소재공학과의 경쟁률을 고려할 때, 이 점수로는 충분히 합격 가능성이 있습니다.
+신소재공학과의 모집인원은 56명이고 지원 인원이 81명으로, 경쟁률은 약 1.45입니다. 평균 표준점수는 271.64로, 동일한 학과에서 지원하는 학생들의 성적 분포를 보여줍니다.
+당신의 점수가 4.28이라면, 이는 평균보다 상위에 위치하며 경쟁률이 낮은 편인 신소재공학과에서는 충분히 좋은 성적입니다. 그러나 최종 합격 여부는 면접 결과 등 다른 요인도 포함되므로, 전반적인 지원 자질을 고려하여 결정해야 합니다.
+결론적으로, 4.28의 표준점수로 신소재공학과에 합격할 확률은 높습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7925603985786438</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 나군 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+다음은 관련 내용 요약입니다:
+- **제출서류**: 
+  - 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+  - 검정고시출신자: 제출서류 없음
+  - 외국고교 졸업(예정)자: 제출서류 없음
+- **특이사항**:
+  - 최종등록자 중 외국고교 졸업예정자는 졸업 이후에 발급한 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+따라서 수능 일반학생전형으로 지원할 때 자기소개서는 필요하지 않습니다. 필요한 서류만 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6639578342437744</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 정확한 수능 성적인지, 어떤 모집단위에서의 성적이며, 어떤 전형을 지원했는지 등 상세한 정보가 필요합니다. 하지만 일반적으로 추가모집 가능성에 대해 답변 드릴 수 있습니다:
+1. 추가모집 여부: 동의대학교에서는 정시 모집이 마감된 후에도 추가모집을 진행할 가능성이 있습니다. 이때 미충원된 모집단위에서 합격자를 선발합니다.
+2. 성적 기준: 추가모집 시에는 일반적으로 최저학력기준 이상의 성적이 필요하며, 일부 전형에서는 정시보다 낮은 점수로도 합격이 가능할 수 있습니다.
+3. 경쟁률: 추가모집에서 선발하는 인원이 제한적일 수 있으므로 경쟁률이 높을 수 있습니다.
+4. 지원 전략: 추가모집에 지원하기 위해서는:
+   - 정시에서 미충족된 모집단위를 확인합니다.
+   - 해당 모집단위의 추가모집 합격기준을 파악합니다.
+   - 서류 및 면접 등 다른 평가 요소도 고려합니다.
+5. 기타 정보: 동의대학교 입학 홈페이지나 입학처에 연락하여 최신 추가모집 정보를 확인하는 것이 좋습니다.
+따라서 정확한 답변을 드리기 위해서는 더 많은 정보가 필요하며, 가장 신뢰할 수 있는 방법은 동의대학교 입학처와 직접 문의하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8923265337944031</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)의 모집요강을 보면, 해당 과정은 정시모집군 C에 속해 있습니다. 정시모집군 C는 보통 3등급 이상이 합격 가능성이 높습니다.
+하지만 정확한 등급 기준은 매년 변경될 수 있으며, 최종적인 합격 가능 여부와 등급 기준은 동의대학교 입학처 홈페이지나 모집요강을 확인하는 것이 가장 정확합니다. 따라서 2024년 현재로서는 3등급 이상이면 충분하지만, 최신 정보를 얻기 위해서는 공식 홈페이지를 참조하시길 권장드립니다.
+참고로, 이전 년도의 모집요강을 통해 신소재공학과의 합격 등급 범위를 확인하실 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.701539933681488</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과의 경우, 작년에 비해 표준점수가 약간 상승하거나 하락할 수 있습니다. 하지만 작년 표준점수와 비교하여 1점 정도 차이가 나는 것은 일반적으로 매우 흔한 일이 아닙니다.
+다음은 최종 합격 가능성에 대한 고려사항들입니다:
+1. **표준점수 변동**: 동의대학교는 수시 모집과 마찬가지로 정시에서도 표준점수를 조정할 수 있습니다. 작년보다 약간 높아진 표준점수가 최종적으로 적용될 가능성은 있지만, 그 차이는 작을 가능성이 큽니다.
+2. **경쟁률**: 현재 지원 인원과 모집인원에 따라 경쟁률이 결정됩니다. 작년과 유사한 경쟁률이라면, 작년의 표준점수와 비슷하거나 약간 높은 점수가 필요할 수 있습니다.
+3. **전형요소 반영**: 동의대학교는 학생부종합전형에서 다양한 요소를 고려합니다. 따라서 단순히 표준점수만으로 결정되는 것이 아니라, 학생부, 면접 등 다른 평가 항목도 중요하게 작용할 수 있습니다.
+4. **모집인원 및 지원 인원**: 모집인원과 지원 인원이 유동적으로 변하기 때문에, 최종적인 경쟁률은 아직 정확히 예측하기 어렵습니다.
+5. **표준점수 조정 가능성**: 동의대학교는 학생들의 성적 분포와 모집 목표를 고려하여 표준점수를 조정할 수 있습니다. 작년보다 약간 높아진 표준점수가 최종적으로 적용될 가능성이 있지만, 그 차이는 작을 것으로 예상됩니다.
+결론적으로, 2024년 신소재공학과의 표준점수가 작년보다 약간 높아졌더라도, 그 차이가 크지 않다면 작년에 비해 1점 정도 더 높은 점수를 받는 것은 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 최종적인 결정을 내리기 위해서는 동의대학교 입학처 웹사이트나 공식 안내 자료를 확인하는 것이 가장 정확할 것입니다.
+추가적으로, 동의대학교 입학관리팀에 직접 문의하거나, 최근 입시 관련 정보를 제공하는 학원이나 컨설팅 서비스를 이용하면 더 구체적인 답변을 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6741113066673279</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학과에 합격할 확률이 상당히 낮습니다. 동의대학교의 신소재공학과는 경쟁률이 매우 높고, 일반적으로 고등학교 성적은 4.0 등급 이상이어야 하는 경우가 많습니다.
+다만, 정확한 예측은 모릅니다. 다음과 같은 요인들이 합격 여부에 영향을 미칠 수 있습니다:
+1. **개별 전형의 특성**: 일부 전형에서는 성적이 아닌 다른 요소(면접, 실기 등)가 중요할 수 있습니다.
+2. **동점자 처리 기준**: 동점자가 발생했을 때, 학교생활기록부나 면접 등의 부정적 사례가 없는 경우에 더 높은 점수를 받을 수 있습니다.
+3. **개인 특성 및 경험**: 창의적인 활동이나 특별한 경험이 있다면 이는 긍정적으로 평가될 수 있습니다.
+4. **모집 정원과 지원자 수**: 모집 정원이 많지 않거나 지원자가 적다면 성적이 조금 낮더라도 합격할 가능성이 있습니다.
+5. **교사 추천서나 자기소개서 등 서류평가**: 이 부분에서 좋은 평가를 받으면 점수에 대한 부정적인 영향을 줄일 수 있습니다.
+결론적으로, 4.3등급의 성적만으로는 신소재공학과에 합격하기 어렵다고 보시면 좋겠습니다. 그러나 모든 가능성은 열려 있으므로, 다른 전형이나 대안을 고려해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7554903626441956</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 &lt;가&gt;군 수능(일반학생전형) 모집단위의 최종 합격자들의 성적을 보면, 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합: 416.53
+- 영어 등급: 3.89
+- 수능 4개 영역 등급: 4.69
+이 성적은 최초합격자들의 평균 성적으로, 정확한 합격선을 알기 위해서는 해당년도의 정확한 합격선 정보를 확인해야 합니다. 하지만 이 성적이 대략적인 기준점으로 활용될 수 있습니다.
+또한, 동점자 처리 기준은 다음과 같습니다:
+1. 면접고사 성적 상위자
+2. 서류평가 공동체역량 영역 성적 상위자
+3. 서류평가 전공적합성 영역 성적 상위자
+4. 교과 성적 상위자
+이 기준을 참고하여 준비하시면 좋을 것 같습니다.
+더 자세한 정보나 최신 합격선 등은 동의대학교 입학 홈페이지를 확인하거나, 입학처에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.7616912126541138</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 영어 등급을 나타내는 것 같습니다. 하지만 동의대학교의 정시 모집에서 성적 기준만으로 결정되는 것은 아닙니다. 여러 요소들이 함께 고려됩니다.
+1. **모집단위와 전형명**: 어떤 모집단위와 전형명에 지원하는지에 따라 수능 점수 기준이 다릅니다. 예를 들어, 일부 학과는 국어, 수학, 영어 등급을 모두 반영하며, 다른 학과는 특정 과목의 표준점수를 더 많이 반영할 수 있습니다.
+2. **성적 산출방법**: 동의대학교에서는 수능 성적을 다음과 같은 방법으로 산출합니다.
+   - **가군(일반학생전형)**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+   - **나군(일반학생전형)**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (특정 학과는 가산점을 더함)
+   - **다군(일반학생전형)**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+3. **등급에 따른 점수**: 영어 5등급은 107점으로 변환됩니다.
+4. **성적 반영 영역**: 특정 학과는 수능 성적이 더 중요할 수 있으며, 다른 학과는 학생부 종합 평가 등 다른 요소들도 고려합니다.
+따라서, 정확한 답변을 위해서는:
+- 지원하는 모집단위와 전형명
+- 해당 모집단위의 수능 성적 기준
+- 기타 평가 요인 (학생부, 면접 등) 
+이런 정보들을 모두 확인해야 합니다. 예를 들어, 다군 수능(일반학생전형)에서는 국어, 수학, 영어 등급을 모두 반영하며, 탐구 영역도 포함됩니다.
+따라서, 5.27의 영어 등급만으로는 확정적으로 추합 가능하다고 말하기 어렵습니다. 더 많은 정보를 가지고 판단해야 합니다. 필요하시다면, 동의대학교 입학처 웹사이트나 전화로 상세한 문의를 하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.6986747980117798</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2의 수능 점수는 중등 정도이며, 이 점수로 소프트웨어공학부에 입학하기는 어렵다고 볼 수 있습니다. 그러나 동의대학교의 경우, 일부 전형에서는 학생부와 면접 등의 비교적 평가 요소를 중요하게 고려합니다.
+소프트웨어공학부에 지원하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 성적**: 4.2의 수능 점수보다는 학생부 성적이 더 중요할 수 있습니다. 특히, 소프트웨어공학과와 관련된 동아리 활동이나 프로젝트 경험 등이 있다면 이점이 될 수 있습니다.
+2. **진로 탐색 활동**: 창의적 체험활동, 진로탐색검사 등의 결과가 중요합니다. 이러한 활동을 통해 자신의 관심 분야와 적성을 파악하고, 이를 소프트웨어공학과에 어떻게 연결할 수 있는지 보여줄 필요가 있습니다.
+3. **면접 준비**: 면접에서는 지원 동기와 학업 계획, 전공적합성 등을 잘 설명해야 합니다. 특히, 자신의 컴퓨터 과학이나 프로그래밍 능력에 대한 이해도를 잘 표현할 수 있어야 합니다.
+4. **추천서**: 선생님 또는 지도교사의 추천서가 있다면 이 또한 큰 도움이 될 수 있습니다.
+5. **기타 활동**: 봉사활동, 경시대회 등 다양한 경험을 통해 자신의 리더십과 문제 해결 능력을 보여줄 수 있는 자료를 준비하는 것이 좋습니다.
+결론적으로, 4.2의 수능 점수로는 소프트웨어공학부에 입학하기 어렵지만, 학생부 성적, 진로 탐색 활동, 면접 등에서 좋은 결과를 얻을 경우 가능성을 높일 수 있습니다. 따라서, 지원 전략을 잘 준비하고, 다양한 활동과 경험을 통해 자신의 강점을 최대한 보여주는 것이 중요합니다.
+추가적으로, 동의대학교의 정시 모집요강이나 학과 홈페이지를 확인하여 자세한 정보를 얻는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6837843656539917</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학, 환경공학, 응용화학)의 정시 일반학생전형에 지원이 가능한지 확인해보겠습니다.
+1. **성적 산출방법**: 
+   - 화학환경공학부는 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 성적을 산출합니다.
+2. **성적 예시**: 
+   - { 104 / 108 / 4등급 / 47 / 59 / } 가 예시입니다.
+   - 여기서 국어(104), 수학(108), 영어(4등급), 탐구(화학Ⅰ 47, 물리Ⅰ 59)를 고려합니다.
+3. **성적 산출**:
+   - 상위 3개 영역을 선택하여 합산한 후 ÷2로 계산합니다.
+   - 예시: 국어(104), 수학(108), 탐구(화학Ⅰ 47)를 선택하면 (104 + 108 + 47) / 2 = 99.5
+3. **성적 기준**:
+   - 화학환경공학부의 정시 일반학생전형 성적 기준을 확인해야 합니다.
+   - 대체적으로 3.6 이상이 필요합니다.
+4. **결론**:
+   - 3.92는 상위 점수로 보입니다.
+   - 이 점수는 대부분의 경우 화학환경공학부 정시 일반학생전형에 충분할 것으로 보입니다.
+따라서, 3.92라는 성적을 가지고 화학환경공학부의 정시 일반학생전형에 지원이 가능합니다. 하지만 최종 결정은 해당 학과의 정확한 성적 기준 및 기타 요인(면접 등)에 따라 달라질 수 있으므로, 공식적인 모집요강을 확인하시기 바랍니다.
+추가적으로, 동의대학교 입학 홈페이지나 전화로 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.7003982067108154</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 대략적인 예측점수로 보아야 합니다. 하지만, 동의대학교 화학환경공학부에 지원하기 위해서는 수능 성적과 학교에서 제공하는 교과성적을 종합적으로 평가받아야 합니다.
+다음은 일반적인 절차와 고려사항입니다:
+1. **수능 성적 확인**:
+   - 수능 성적은 국어, 수학(미적분 또는 기하), 영어 등급, 탐구 과목의 표준점수를 반영합니다.
+   - 동의대학교는 수능 성적을 100% 반영하는 모집단위와 일부 모집단위에서는 수학에 가산점을 부여하는 경우가 있습니다.
+2. **교과성적 확인**:
+   - 교과성적은 고교 졸업예정자나 검정고시 학생의 경우 제출서류 없음입니다.
+   - 외국고교 졸업 예정자는 졸업 후 발급한 졸업증명서를 추가로 제출해야 합니다.
+3. **모집단위와 모집인원 확인**:
+   - 화학환경공학부의 모집인원과 지원 인원을 확인하여 경쟁률을 파악합니다.
+   - 2024년도 모집단위 및 모집인원 표를 참조할 수 있습니다.
+4. **전형요소 반영비율**:
+   - 화학환경공학부는 수능 성적을 100% 반영하는 것으로 보입니다.
+   - 따라서, 수능 성적이 합격 기준에 충족해야 합니다.
+5. **합격기준 확인**:
+   - 동의대학교의 수능 전형성적 산출방법을 참조하여 합격 기준 점수를 파악합니다.
+   - 예시로, 국어 + 수학 + 영어 등급점수 + 탐구 표준점수를 합산한 점수가 합격기준이 될 수 있습니다.
+6. **최종 결정**:
+   - 실제 수능 성적과 교과성적이 합격 기준을 충족하는지 확인해야 합니다.
+   - 동의대학교 입학전형일정을 참고하여 원서접수와 서류제출 등을 진행합니다.
+따라서, 4.25라는 점수가 실제 수능 성적에 해당한다면, 화학환경공학부에 지원 가능성이 있습니다. 하지만 정확한 합격 가능성은 실제 수능 성적이 발표된 후 확인해야 합니다. 따라서, 수능 성적 발표 이후 다시 한 번 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7231175899505615</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 고등학교 졸업예정자의 경우, 수능 국어+수학+탐구(2과목)의 표준점수가 아니라, 전체 수능 성적의 표준점수를 의미하는 것으로 보입니다.
+현재 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 하지만 다음과 같은 점들을 고려해보면 일반적인 판단 기준을 세울 수 있습니다:
+1. **전형 유형**: 영화학과의 경우, 많은 학교에서는 예술적 감각이나 창의력 등을 중점적으로 평가하기 때문에, 단순히 수능 성적이 높은 것만으로는 합격 확률을 판단하기 어렵습니다.
+2. **모집인원 및 지원자 수**: 정시 모집인원과 지원자의 수를 고려해야 합니다. 만약 모집인원이 적고 지원자가 많다면, 4.2라는 점수로는 경쟁력이 떨어질 수 있습니다.
+3. **전형 요소**: 영화학과의 경우, 면접이나 portfolios(포트폴리오) 등 실기 평가도 중요하게 고려됩니다. 따라서 수능 성적 외에도 창작 작품이나 예술 활동 경력 등을 잘 준비했는지 확인해야 합니다.
+4. **경쟁률**: 각 모집단위별로 다른 경쟁률이 있을 수 있으므로, 해당 학과의 최종 경쟁률을 확인해보세요.
+5. **대학 별 평균 점수**: 대학별로 수능 성적의 평균 점수가 다르기 때문에, 해당 대학의 평균 점수를 참고하여 판단하는 것이 좋습니다.
+6. **추천서 및 자기소개서**: 추천서나 자기소개서 등 서류평가에서도 좋은 점수를 받을 수 있다면 이는 합격 가능성에 긍정적인 영향을 미칠 수 있습니다.
+결론적으로, 4.2라는 점수로만 판단하기 어렵습니다. 수능 성적 외에도 면접, portfolios 등 다양한 평가 요소들을 고려하여 합격 가능성을 판단하는 것이 좋겠습니다. 또한, 해당 대학의 전형요소와 지원자들의 경쟁력을 파악해보는 것도 중요합니다.
+추가 정보를 제공해주실 경우 더 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6591679453849792</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+```
+면접 절차 / 개별면접 /
+면접 시간 / 1인당 10분 이내 /
+면접 방법 / 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가 수험생의 답변 내용을 바탕으로 정성·종합적으로 평가 /
+블라인드 면접 / 면접 시 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지 교복 착용 금지 /
+면접 절차 / ①대기실 입실 ⇨ ②신분 확인 ⇨ ③고사장 앞 이동 ⇨ ④고사장 입실 ⇨ ⑤지원동기 및 학업계획 발표 ⇨ ⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ ⑦기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧퇴실 /
+```</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8649150133132935</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7674282321333885</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7874351125955582</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7465638148784638</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7774316723644733</v>
+      <c r="D305" t="n">
+        <v>0.7671423865358035</v>
       </c>
     </row>
   </sheetData>
